--- a/TPF-HelicopteroVertical/DatosLeidos.xlsx
+++ b/TPF-HelicopteroVertical/DatosLeidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\auto\TPF-HelicopteroVertical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9468F5A-44E5-4BA9-A533-40835F03C03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E675E51-3995-4DE8-BDE6-EF970B889241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3103993D-3E3E-48DB-83F6-A77CE42FBD02}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3103993D-3E3E-48DB-83F6-A77CE42FBD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -89,8 +97,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254DA359-06D5-4CAF-A511-99B3ADB3F64A}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="63" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +598,7 @@
         <v>1000</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B48" si="1">504*2</f>
+        <f t="shared" ref="B7:B70" si="1">504*2</f>
         <v>1008</v>
       </c>
       <c r="C7">
@@ -1292,6 +1319,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>7298</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -1301,6 +1340,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>7298</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -1310,6 +1361,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>7308</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -1319,6 +1382,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>7284</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -1328,6 +1403,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>56</v>
+      </c>
+      <c r="F45">
+        <v>7284</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -1337,6 +1424,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>7290</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -1346,6 +1445,18 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>7294</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -1355,8 +1466,3908 @@
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>7286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1000</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1000</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1000</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1000</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>10312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1000</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>59</v>
+      </c>
+      <c r="F53">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1000</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>10288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>59</v>
+      </c>
+      <c r="F55">
+        <v>10305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1000</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>10331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1000</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>59</v>
+      </c>
+      <c r="F57">
+        <v>10319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1000</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>59</v>
+      </c>
+      <c r="F58">
+        <v>10314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+      <c r="F59">
+        <v>10298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1000</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <v>10282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1000</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1000</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>59</v>
+      </c>
+      <c r="F63">
+        <v>10276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1000</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>10487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1000</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>48</v>
+      </c>
+      <c r="F65">
+        <v>10461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1000</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>48</v>
+      </c>
+      <c r="F66">
+        <v>10462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>10459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1000</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>48</v>
+      </c>
+      <c r="F68">
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1000</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>48</v>
+      </c>
+      <c r="F69">
+        <v>10463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1000</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1000</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B135" si="2">504*2</f>
+        <v>1008</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>48</v>
+      </c>
+      <c r="F71">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1000</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>48</v>
+      </c>
+      <c r="F72">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1000</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>10416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1000</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>48</v>
+      </c>
+      <c r="F74">
+        <v>10431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1000</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1000</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>46</v>
+      </c>
+      <c r="F76">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>46</v>
+      </c>
+      <c r="F77">
+        <v>10531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>46</v>
+      </c>
+      <c r="F78">
+        <v>10518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>46</v>
+      </c>
+      <c r="F79">
+        <v>10527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1000</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>46</v>
+      </c>
+      <c r="F80">
+        <v>10538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1000</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>46</v>
+      </c>
+      <c r="F81">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1000</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>46</v>
+      </c>
+      <c r="F82">
+        <v>10519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>46</v>
+      </c>
+      <c r="F83">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1000</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>46</v>
+      </c>
+      <c r="F84">
+        <v>10519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1000</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>45</v>
+      </c>
+      <c r="F85">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1000</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>45</v>
+      </c>
+      <c r="F86">
+        <v>11478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1000</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>45</v>
+      </c>
+      <c r="F87">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1000</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>45</v>
+      </c>
+      <c r="F88">
+        <v>11465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1000</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>45</v>
+      </c>
+      <c r="F89">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1000</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>45.2</v>
+      </c>
+      <c r="F90">
+        <v>11469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1000</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>45.2</v>
+      </c>
+      <c r="F91">
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1000</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>46</v>
+      </c>
+      <c r="F92">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1000</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>45.5</v>
+      </c>
+      <c r="F93">
+        <v>11469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1000</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>11471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1000</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>45</v>
+      </c>
+      <c r="F95">
+        <v>10543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1000</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>45</v>
+      </c>
+      <c r="F96">
+        <v>10537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1000</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>45</v>
+      </c>
+      <c r="F97">
+        <v>10552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1000</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>45</v>
+      </c>
+      <c r="F98">
+        <v>10535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1000</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>10572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1000</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>45</v>
+      </c>
+      <c r="F100">
+        <v>10601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1000</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>45</v>
+      </c>
+      <c r="F101">
+        <v>10609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1000</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>45</v>
+      </c>
+      <c r="F102">
+        <v>10586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1000</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="D103">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>45</v>
+      </c>
+      <c r="F103">
+        <v>10586</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1000</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>45</v>
+      </c>
+      <c r="F104">
+        <v>10618</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1000</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C105">
+        <v>17</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>45.7</v>
+      </c>
+      <c r="F105">
+        <v>10424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1000</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C106">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>45.7</v>
+      </c>
+      <c r="F106">
+        <v>10422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1000</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C107">
+        <v>17</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>45.7</v>
+      </c>
+      <c r="F107">
+        <v>10418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1000</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C108">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>46</v>
+      </c>
+      <c r="F108">
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1000</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>45.5</v>
+      </c>
+      <c r="F109">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1000</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C110">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>45.7</v>
+      </c>
+      <c r="F110">
+        <v>10437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1000</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C111">
+        <v>17</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>45.7</v>
+      </c>
+      <c r="F111">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1000</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C112">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>46</v>
+      </c>
+      <c r="F112">
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1000</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C113">
+        <v>17</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>45.2</v>
+      </c>
+      <c r="F113">
+        <v>10454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1000</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>46</v>
+      </c>
+      <c r="F114">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1000</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C115">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>22</v>
+      </c>
+      <c r="E115">
+        <v>45</v>
+      </c>
+      <c r="F115">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1000</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C116">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>22</v>
+      </c>
+      <c r="E116">
+        <v>45</v>
+      </c>
+      <c r="F116">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1000</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C117">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>22</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1000</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C118">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>22</v>
+      </c>
+      <c r="E118">
+        <v>45</v>
+      </c>
+      <c r="F118">
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1000</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C119">
+        <v>19</v>
+      </c>
+      <c r="D119">
+        <v>22</v>
+      </c>
+      <c r="E119">
+        <v>45</v>
+      </c>
+      <c r="F119">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1000</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C120">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>45</v>
+      </c>
+      <c r="F120">
+        <v>9282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1000</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C121">
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>22</v>
+      </c>
+      <c r="E121">
+        <v>45</v>
+      </c>
+      <c r="F121">
+        <v>9288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1000</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C122">
+        <v>19</v>
+      </c>
+      <c r="D122">
+        <v>22</v>
+      </c>
+      <c r="E122">
+        <v>45</v>
+      </c>
+      <c r="F122">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1000</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C123">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+      <c r="E123">
+        <v>45</v>
+      </c>
+      <c r="F123">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1000</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+      <c r="D124">
+        <v>22</v>
+      </c>
+      <c r="E124">
+        <v>45</v>
+      </c>
+      <c r="F124">
+        <v>9307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1000</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>22</v>
+      </c>
+      <c r="E125">
+        <v>45</v>
+      </c>
+      <c r="F125">
+        <v>9343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1000</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>22</v>
+      </c>
+      <c r="E126">
+        <v>45</v>
+      </c>
+      <c r="F126">
+        <v>9342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1000</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>22</v>
+      </c>
+      <c r="E127">
+        <v>45</v>
+      </c>
+      <c r="F127">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1000</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>22</v>
+      </c>
+      <c r="E128">
+        <v>45</v>
+      </c>
+      <c r="F128">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1000</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>22</v>
+      </c>
+      <c r="E129">
+        <v>45</v>
+      </c>
+      <c r="F129">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1000</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>22</v>
+      </c>
+      <c r="E130">
+        <v>45</v>
+      </c>
+      <c r="F130">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1000</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>22</v>
+      </c>
+      <c r="E131">
+        <v>45</v>
+      </c>
+      <c r="F131">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1000</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>22</v>
+      </c>
+      <c r="E132">
+        <v>45</v>
+      </c>
+      <c r="F132">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1000</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>22</v>
+      </c>
+      <c r="E133">
+        <v>45</v>
+      </c>
+      <c r="F133">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1000</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>22</v>
+      </c>
+      <c r="E134">
+        <v>45</v>
+      </c>
+      <c r="F134">
+        <v>9339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1000</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>24</v>
+      </c>
+      <c r="E135">
+        <v>43</v>
+      </c>
+      <c r="F135">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1000</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136:B201" si="3">504*2</f>
+        <v>1008</v>
+      </c>
+      <c r="C136">
+        <v>21</v>
+      </c>
+      <c r="D136">
+        <v>24</v>
+      </c>
+      <c r="E136">
+        <v>43</v>
+      </c>
+      <c r="F136">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1000</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C137">
+        <v>21</v>
+      </c>
+      <c r="D137">
+        <v>24</v>
+      </c>
+      <c r="E137">
+        <v>43</v>
+      </c>
+      <c r="F137">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1000</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C138">
+        <v>21</v>
+      </c>
+      <c r="D138">
+        <v>24</v>
+      </c>
+      <c r="E138">
+        <v>43</v>
+      </c>
+      <c r="F138">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1000</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C139">
+        <v>21</v>
+      </c>
+      <c r="D139">
+        <v>24</v>
+      </c>
+      <c r="E139">
+        <v>43</v>
+      </c>
+      <c r="F139">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1000</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C140">
+        <v>22</v>
+      </c>
+      <c r="D140">
+        <v>24</v>
+      </c>
+      <c r="E140">
+        <v>42.7</v>
+      </c>
+      <c r="F140">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1000</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C141">
+        <v>22</v>
+      </c>
+      <c r="D141">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>42.7</v>
+      </c>
+      <c r="F141">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1000</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C142">
+        <v>22</v>
+      </c>
+      <c r="D142">
+        <v>24</v>
+      </c>
+      <c r="E142">
+        <v>43</v>
+      </c>
+      <c r="F142">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1000</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C143">
+        <v>22</v>
+      </c>
+      <c r="D143">
+        <v>24</v>
+      </c>
+      <c r="E143">
+        <v>43</v>
+      </c>
+      <c r="F143">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1000</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>24</v>
+      </c>
+      <c r="E144">
+        <v>43</v>
+      </c>
+      <c r="F144">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1000</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C145">
+        <v>23</v>
+      </c>
+      <c r="D145">
+        <v>24</v>
+      </c>
+      <c r="E145">
+        <v>42.5</v>
+      </c>
+      <c r="F145">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1000</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C146">
+        <v>23</v>
+      </c>
+      <c r="D146">
+        <v>24</v>
+      </c>
+      <c r="E146">
+        <v>43</v>
+      </c>
+      <c r="F146">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1000</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C147">
+        <v>19</v>
+      </c>
+      <c r="D147">
+        <v>26</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
+      </c>
+      <c r="F147">
+        <v>12729</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1000</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C148">
+        <v>19</v>
+      </c>
+      <c r="D148">
+        <v>26</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
+      </c>
+      <c r="F148">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1000</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C149">
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>26</v>
+      </c>
+      <c r="E149">
+        <v>41</v>
+      </c>
+      <c r="F149">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1000</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C150">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>26</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
+      </c>
+      <c r="F150">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1000</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C151">
+        <v>23</v>
+      </c>
+      <c r="D151">
+        <v>26</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
+      </c>
+      <c r="F151">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1000</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C152">
+        <v>25</v>
+      </c>
+      <c r="D152">
+        <v>26</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
+      </c>
+      <c r="F152">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1000</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C153">
+        <v>24</v>
+      </c>
+      <c r="D153">
+        <v>26</v>
+      </c>
+      <c r="E153">
+        <v>41</v>
+      </c>
+      <c r="F153">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1000</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C154">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <v>26</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
+      </c>
+      <c r="F154">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1000</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>26</v>
+      </c>
+      <c r="E155">
+        <v>41</v>
+      </c>
+      <c r="F155">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1000</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C156">
+        <v>25</v>
+      </c>
+      <c r="D156">
+        <v>26</v>
+      </c>
+      <c r="E156">
+        <v>41</v>
+      </c>
+      <c r="F156">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1000</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C157">
+        <v>23</v>
+      </c>
+      <c r="D157">
+        <v>26</v>
+      </c>
+      <c r="E157">
+        <v>41</v>
+      </c>
+      <c r="F157">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1000</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C158">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>26</v>
+      </c>
+      <c r="E158">
+        <v>41</v>
+      </c>
+      <c r="F158">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1000</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C159">
+        <v>25</v>
+      </c>
+      <c r="D159">
+        <v>26</v>
+      </c>
+      <c r="E159">
+        <v>41</v>
+      </c>
+      <c r="F159">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1000</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C160">
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>26</v>
+      </c>
+      <c r="E160">
+        <v>41</v>
+      </c>
+      <c r="F160">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1000</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C161">
+        <v>24</v>
+      </c>
+      <c r="D161">
+        <v>26</v>
+      </c>
+      <c r="E161">
+        <v>41</v>
+      </c>
+      <c r="F161">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1000</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C162">
+        <v>26</v>
+      </c>
+      <c r="D162">
+        <v>28</v>
+      </c>
+      <c r="E162" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F162" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1000</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C163">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>28</v>
+      </c>
+      <c r="E163">
+        <v>40.5</v>
+      </c>
+      <c r="F163">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1000</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C164">
+        <v>25</v>
+      </c>
+      <c r="D164">
+        <v>28</v>
+      </c>
+      <c r="E164">
+        <v>41</v>
+      </c>
+      <c r="F164">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1000</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C165">
+        <v>26</v>
+      </c>
+      <c r="D165">
+        <v>28</v>
+      </c>
+      <c r="E165">
+        <v>41</v>
+      </c>
+      <c r="F165">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1000</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C166">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>28</v>
+      </c>
+      <c r="E166">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F166">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1000</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C167">
+        <v>26</v>
+      </c>
+      <c r="D167">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>40</v>
+      </c>
+      <c r="F167">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1000</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C168">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>28</v>
+      </c>
+      <c r="E168">
+        <v>40</v>
+      </c>
+      <c r="F168">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1000</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C169">
+        <v>26</v>
+      </c>
+      <c r="D169">
+        <v>28</v>
+      </c>
+      <c r="E169">
+        <v>40</v>
+      </c>
+      <c r="F169">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1000</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C170">
+        <v>26</v>
+      </c>
+      <c r="D170">
+        <v>28</v>
+      </c>
+      <c r="E170">
+        <v>40</v>
+      </c>
+      <c r="F170">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1000</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C171">
+        <v>25</v>
+      </c>
+      <c r="D171">
+        <v>28</v>
+      </c>
+      <c r="E171">
+        <v>40</v>
+      </c>
+      <c r="F171">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1000</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C172">
+        <v>26</v>
+      </c>
+      <c r="D172">
+        <v>28</v>
+      </c>
+      <c r="E172">
+        <v>40</v>
+      </c>
+      <c r="F172">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1000</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C173" s="2">
+        <v>26</v>
+      </c>
+      <c r="D173">
+        <v>28</v>
+      </c>
+      <c r="E173">
+        <v>40</v>
+      </c>
+      <c r="F173">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1000</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C174">
+        <v>26</v>
+      </c>
+      <c r="D174">
+        <v>28</v>
+      </c>
+      <c r="E174">
+        <v>40</v>
+      </c>
+      <c r="F174">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1000</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C175">
+        <v>26</v>
+      </c>
+      <c r="D175">
+        <v>28</v>
+      </c>
+      <c r="E175">
+        <v>40</v>
+      </c>
+      <c r="F175">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1000</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C176">
+        <v>26</v>
+      </c>
+      <c r="D176">
+        <v>28</v>
+      </c>
+      <c r="E176">
+        <v>40</v>
+      </c>
+      <c r="F176">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1000</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C177">
+        <v>28</v>
+      </c>
+      <c r="D177">
+        <v>30</v>
+      </c>
+      <c r="E177">
+        <v>42.7</v>
+      </c>
+      <c r="F177">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1000</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C178">
+        <v>28</v>
+      </c>
+      <c r="D178">
+        <v>30</v>
+      </c>
+      <c r="E178">
+        <v>43</v>
+      </c>
+      <c r="F178">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1000</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C179">
+        <v>28</v>
+      </c>
+      <c r="D179">
+        <v>30</v>
+      </c>
+      <c r="E179">
+        <v>43</v>
+      </c>
+      <c r="F179">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1000</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C180">
+        <v>28</v>
+      </c>
+      <c r="D180">
+        <v>30</v>
+      </c>
+      <c r="E180">
+        <v>43</v>
+      </c>
+      <c r="F180">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1000</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C181">
+        <v>28</v>
+      </c>
+      <c r="D181">
+        <v>30</v>
+      </c>
+      <c r="E181">
+        <v>43</v>
+      </c>
+      <c r="F181">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1000</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C182">
+        <v>29</v>
+      </c>
+      <c r="D182">
+        <v>30</v>
+      </c>
+      <c r="E182">
+        <v>43</v>
+      </c>
+      <c r="F182">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1000</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C183">
+        <v>30</v>
+      </c>
+      <c r="D183">
+        <v>30</v>
+      </c>
+      <c r="E183">
+        <v>43</v>
+      </c>
+      <c r="F183">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1000</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C184">
+        <v>28</v>
+      </c>
+      <c r="D184">
+        <v>30</v>
+      </c>
+      <c r="E184">
+        <v>43</v>
+      </c>
+      <c r="F184">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1000</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C185">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>30</v>
+      </c>
+      <c r="E185">
+        <v>43</v>
+      </c>
+      <c r="F185">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1000</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C186">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>30</v>
+      </c>
+      <c r="E186">
+        <v>43</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1000</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C187">
+        <v>30</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>44</v>
+      </c>
+      <c r="F187">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1000</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C188">
+        <v>30</v>
+      </c>
+      <c r="D188">
+        <v>32</v>
+      </c>
+      <c r="E188">
+        <v>44</v>
+      </c>
+      <c r="F188">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1000</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C189">
+        <v>30</v>
+      </c>
+      <c r="D189">
+        <v>32</v>
+      </c>
+      <c r="E189">
+        <v>44</v>
+      </c>
+      <c r="F189">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1000</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+      <c r="D190">
+        <v>32</v>
+      </c>
+      <c r="E190">
+        <v>44</v>
+      </c>
+      <c r="F190">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1000</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C191">
+        <v>31</v>
+      </c>
+      <c r="D191">
+        <v>32</v>
+      </c>
+      <c r="E191">
+        <v>44</v>
+      </c>
+      <c r="F191">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1000</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C192">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>32</v>
+      </c>
+      <c r="E192">
+        <v>44</v>
+      </c>
+      <c r="F192">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1000</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C193">
+        <v>30</v>
+      </c>
+      <c r="D193">
+        <v>32</v>
+      </c>
+      <c r="E193">
+        <v>45</v>
+      </c>
+      <c r="F193">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1000</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C194">
+        <v>30</v>
+      </c>
+      <c r="D194">
+        <v>32</v>
+      </c>
+      <c r="E194">
+        <v>45</v>
+      </c>
+      <c r="F194">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1000</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C195">
+        <v>30</v>
+      </c>
+      <c r="D195">
+        <v>32</v>
+      </c>
+      <c r="E195">
+        <v>45</v>
+      </c>
+      <c r="F195">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1000</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C196">
+        <v>30</v>
+      </c>
+      <c r="D196">
+        <v>32</v>
+      </c>
+      <c r="E196">
+        <v>45</v>
+      </c>
+      <c r="F196">
+        <v>7787</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1000</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C197">
+        <v>31</v>
+      </c>
+      <c r="D197">
+        <v>32</v>
+      </c>
+      <c r="E197">
+        <v>45</v>
+      </c>
+      <c r="F197">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1000</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+      <c r="D198">
+        <v>32</v>
+      </c>
+      <c r="E198">
+        <v>45</v>
+      </c>
+      <c r="F198">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1000</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C199">
+        <v>30</v>
+      </c>
+      <c r="D199">
+        <v>32</v>
+      </c>
+      <c r="E199">
+        <v>45</v>
+      </c>
+      <c r="F199">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1000</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ref="B200" si="4">504*2</f>
+        <v>1008</v>
+      </c>
+      <c r="C200">
+        <v>30</v>
+      </c>
+      <c r="D200">
+        <v>32</v>
+      </c>
+      <c r="E200">
+        <v>45</v>
+      </c>
+      <c r="F200">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1000</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C201">
+        <v>30</v>
+      </c>
+      <c r="D201">
+        <v>32</v>
+      </c>
+      <c r="E201">
+        <v>45</v>
+      </c>
+      <c r="F201">
+        <v>7781</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1000</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ref="B202:B227" si="5">504*2</f>
+        <v>1008</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+      <c r="D202">
+        <v>32</v>
+      </c>
+      <c r="E202">
+        <v>45</v>
+      </c>
+      <c r="F202">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1000</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C203">
+        <v>34</v>
+      </c>
+      <c r="D203">
+        <v>32</v>
+      </c>
+      <c r="E203">
+        <v>45</v>
+      </c>
+      <c r="F203">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1000</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C204">
+        <v>31</v>
+      </c>
+      <c r="D204">
+        <v>32</v>
+      </c>
+      <c r="E204">
+        <v>45</v>
+      </c>
+      <c r="F204">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1000</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C205">
+        <v>30</v>
+      </c>
+      <c r="D205">
+        <v>32</v>
+      </c>
+      <c r="E205">
+        <v>45</v>
+      </c>
+      <c r="F205">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1000</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C206" s="5">
+        <v>32</v>
+      </c>
+      <c r="D206">
+        <v>34</v>
+      </c>
+      <c r="E206" s="5">
+        <v>46</v>
+      </c>
+      <c r="F206" s="7">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1000</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C207" s="5">
+        <v>32</v>
+      </c>
+      <c r="D207">
+        <v>34</v>
+      </c>
+      <c r="E207" s="5">
+        <v>46</v>
+      </c>
+      <c r="F207" s="7">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1000</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C208" s="5">
+        <v>33</v>
+      </c>
+      <c r="D208">
+        <v>34</v>
+      </c>
+      <c r="E208" s="5">
+        <v>46</v>
+      </c>
+      <c r="F208" s="7">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1000</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C209" s="5">
+        <v>32</v>
+      </c>
+      <c r="D209">
+        <v>34</v>
+      </c>
+      <c r="E209" s="5">
+        <v>46</v>
+      </c>
+      <c r="F209" s="7">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1000</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C210" s="5">
+        <v>32</v>
+      </c>
+      <c r="D210">
+        <v>34</v>
+      </c>
+      <c r="E210" s="5">
+        <v>46</v>
+      </c>
+      <c r="F210" s="7">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1000</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C211" s="5">
+        <v>33</v>
+      </c>
+      <c r="D211">
+        <v>34</v>
+      </c>
+      <c r="E211" s="5">
+        <v>46</v>
+      </c>
+      <c r="F211" s="7">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1000</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C212" s="5">
+        <v>32</v>
+      </c>
+      <c r="D212">
+        <v>34</v>
+      </c>
+      <c r="E212" s="5">
+        <v>46</v>
+      </c>
+      <c r="F212" s="7">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1000</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C213" s="5">
+        <v>32</v>
+      </c>
+      <c r="D213">
+        <v>34</v>
+      </c>
+      <c r="E213" s="5">
+        <v>46</v>
+      </c>
+      <c r="F213" s="7">
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1000</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C214" s="5">
+        <v>33</v>
+      </c>
+      <c r="D214">
+        <v>34</v>
+      </c>
+      <c r="E214" s="5">
+        <v>46</v>
+      </c>
+      <c r="F214" s="7">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1000</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C215" s="5">
+        <v>33</v>
+      </c>
+      <c r="D215">
+        <v>34</v>
+      </c>
+      <c r="E215" s="5">
+        <v>46</v>
+      </c>
+      <c r="F215" s="7">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1000</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C216" s="5">
+        <v>33</v>
+      </c>
+      <c r="D216">
+        <v>34</v>
+      </c>
+      <c r="E216" s="5">
+        <v>46</v>
+      </c>
+      <c r="F216" s="7">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1000</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C217" s="5">
+        <v>33</v>
+      </c>
+      <c r="D217">
+        <v>34</v>
+      </c>
+      <c r="E217" s="5">
+        <v>46</v>
+      </c>
+      <c r="F217" s="7">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1000</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C218" s="5">
+        <v>34</v>
+      </c>
+      <c r="D218">
+        <v>36</v>
+      </c>
+      <c r="E218" s="5">
+        <v>46</v>
+      </c>
+      <c r="F218" s="7">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1000</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C219" s="5">
+        <v>35</v>
+      </c>
+      <c r="D219">
+        <v>36</v>
+      </c>
+      <c r="E219" s="5">
+        <v>46</v>
+      </c>
+      <c r="F219" s="7">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1000</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C220" s="5">
+        <v>34</v>
+      </c>
+      <c r="D220" s="7">
+        <v>36</v>
+      </c>
+      <c r="E220" s="5">
+        <v>46</v>
+      </c>
+      <c r="F220" s="7">
+        <v>6631</v>
+      </c>
+      <c r="G220" s="6"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1000</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C221" s="5">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>36</v>
+      </c>
+      <c r="E221" s="5">
+        <v>46</v>
+      </c>
+      <c r="F221" s="7">
+        <v>6580</v>
+      </c>
+      <c r="G221" s="5"/>
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1000</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C222" s="5">
+        <v>34</v>
+      </c>
+      <c r="D222">
+        <v>36</v>
+      </c>
+      <c r="E222" s="5">
+        <v>46</v>
+      </c>
+      <c r="F222" s="7">
+        <v>6571</v>
+      </c>
+      <c r="G222" s="5"/>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1000</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C223" s="5">
+        <v>35</v>
+      </c>
+      <c r="D223" s="7">
+        <v>36</v>
+      </c>
+      <c r="E223" s="5">
+        <v>46</v>
+      </c>
+      <c r="F223" s="7">
+        <v>6623</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1000</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C224" s="5">
+        <v>34</v>
+      </c>
+      <c r="D224">
+        <v>36</v>
+      </c>
+      <c r="E224" s="5">
+        <v>46</v>
+      </c>
+      <c r="F224" s="7">
+        <v>6546</v>
+      </c>
+      <c r="G224" s="5"/>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1000</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C225" s="5">
+        <v>35</v>
+      </c>
+      <c r="D225">
+        <v>36</v>
+      </c>
+      <c r="E225" s="5">
+        <v>46</v>
+      </c>
+      <c r="F225" s="7">
+        <v>6618</v>
+      </c>
+      <c r="G225" s="5"/>
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1000</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C226" s="5">
+        <v>35</v>
+      </c>
+      <c r="D226" s="7">
+        <v>36</v>
+      </c>
+      <c r="E226" s="5">
+        <v>46</v>
+      </c>
+      <c r="F226" s="7">
+        <v>6669</v>
+      </c>
+      <c r="G226" s="5"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1000</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="5"/>
+        <v>1008</v>
+      </c>
+      <c r="C227" s="5">
+        <v>35</v>
+      </c>
+      <c r="D227">
+        <v>36</v>
+      </c>
+      <c r="E227" s="5">
+        <v>46</v>
+      </c>
+      <c r="F227" s="7">
+        <v>6600</v>
+      </c>
+      <c r="G227" s="5"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D228" s="1"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D229" s="1"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D230" s="1"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D231" s="1"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D232" s="1"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C235" s="4"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C236" s="1"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C237" s="1"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C238" s="1"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C239" s="1"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C240" s="1"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C241" s="1"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C242" s="1"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C243" s="1"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C244" s="1"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C245" s="1"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>